--- a/Week 44/Shareena.xlsx
+++ b/Week 44/Shareena.xlsx
@@ -299,6 +299,23 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -317,23 +334,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
@@ -919,9 +919,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -976,7 +974,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1238,7 +1235,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1345,7 +1341,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1471,9 +1466,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1528,7 +1521,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -6145,13 +6137,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2476501</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -6176,16 +6168,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2933700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6254,58 +6246,58 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A49:B51" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A49:B51" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A49:B51"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Work" dataDxfId="15"/>
-    <tableColumn id="2" name="Time" dataDxfId="14"/>
+    <tableColumn id="1" name="Work" dataDxfId="20"/>
+    <tableColumn id="2" name="Time" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A21:C24" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A21:C24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A21:C24"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Customer" dataDxfId="20"/>
-    <tableColumn id="2" name="No of Times" dataDxfId="19"/>
-    <tableColumn id="3" name="Time" dataDxfId="18"/>
+    <tableColumn id="1" name="Customer" dataDxfId="16"/>
+    <tableColumn id="2" name="No of Times" dataDxfId="15"/>
+    <tableColumn id="3" name="Time" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A10:C12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A10:C12" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A10:C12"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Customer" dataDxfId="13"/>
-    <tableColumn id="2" name="No of Times" dataDxfId="12"/>
-    <tableColumn id="3" name="Time" dataDxfId="11"/>
+    <tableColumn id="1" name="Customer" dataDxfId="11"/>
+    <tableColumn id="2" name="No of Times" dataDxfId="10"/>
+    <tableColumn id="3" name="Time" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A15:C17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A15:C17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A15:C17"/>
   <tableColumns count="3">
-    <tableColumn id="2" name="Category" dataDxfId="8"/>
-    <tableColumn id="3" name="No of Times" dataDxfId="7"/>
-    <tableColumn id="1" name="Time" dataDxfId="6"/>
+    <tableColumn id="2" name="Category" dataDxfId="6"/>
+    <tableColumn id="3" name="No of Times" dataDxfId="5"/>
+    <tableColumn id="1" name="Time" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A38:B40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A38:B40" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A38:B40"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="Work" dataDxfId="3"/>
-    <tableColumn id="1" name="Time" dataDxfId="2"/>
+    <tableColumn id="2" name="Work" dataDxfId="1"/>
+    <tableColumn id="1" name="Time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6925,8 +6917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
